--- a/Mensalidades MMM.xlsx
+++ b/Mensalidades MMM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Humberto GTI 2°\Projeto Integrador 2 KELLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Humberto GTI 2°\Prijeto Integrador 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922B688-149A-4AE3-924E-E3D30B68DF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha5" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Janeiro</t>
   </si>
@@ -175,12 +176,15 @@
   </si>
   <si>
     <t>#####</t>
+  </si>
+  <si>
+    <t>Soma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,9 +467,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -487,11 +488,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,6 +517,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +819,10 @@
     <col min="12" max="12" width="10.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.140625" style="3" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" style="2"/>
+    <col min="15" max="18" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -853,23 +857,26 @@
       <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -906,26 +913,30 @@
       <c r="L2" s="4">
         <v>6335.35</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>3371.08</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="16">
+      <c r="N2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="15">
+        <f>SUM(B2:M2)</f>
+        <v>48048.5</v>
+      </c>
+      <c r="P2" s="15">
         <f>AVERAGE(B2:M2)</f>
         <v>4004.0416666666665</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <f>_xlfn.MODE.MULT(B2:M2)</f>
         <v>1731.14</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <f>MEDIAN(B2:M2)</f>
         <v>3750.9850000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -962,26 +973,30 @@
       <c r="L3" s="4">
         <v>6469.96</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>5900.9</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="16">
-        <f t="shared" ref="O3:O31" si="0">AVERAGE(B3:M3)</f>
+      <c r="N3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O31" si="0">SUM(B3:M3)</f>
+        <v>45544.47</v>
+      </c>
+      <c r="P3" s="15">
+        <f t="shared" ref="P3:P31" si="1">AVERAGE(B3:M3)</f>
         <v>3795.3724999999999</v>
       </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P31" si="1">_xlfn.MODE.SNGL(B3:M3)</f>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q31" si="2">_xlfn.MODE.MULT(B3:M3)</f>
         <v>1889.59</v>
       </c>
-      <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q31" si="2">MEDIAN(B3:M3)</f>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R31" si="3">MEDIAN(B3:M3)</f>
         <v>3136.3049999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1033,30 @@
       <c r="L4" s="4">
         <v>2637.6</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>4913.58</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="N4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
+        <v>48284.1</v>
+      </c>
+      <c r="P4" s="15">
+        <f t="shared" si="1"/>
         <v>4023.6749999999997</v>
       </c>
-      <c r="P4" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
         <v>3402.78</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="2"/>
+      <c r="R4" s="5">
+        <f t="shared" si="3"/>
         <v>3406.5650000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -1074,26 +1093,30 @@
       <c r="L5" s="4">
         <v>5292.53</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>7742.55</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="16">
+      <c r="N5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="15">
         <f t="shared" si="0"/>
+        <v>46927.44</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" si="1"/>
         <v>3910.6200000000003</v>
       </c>
-      <c r="P5" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
         <v>2128.1</v>
       </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="2"/>
+      <c r="R5" s="5">
+        <f t="shared" si="3"/>
         <v>4078.54</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1130,26 +1153,30 @@
       <c r="L6" s="4">
         <v>4653.2299999999996</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>6115.11</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="0"/>
+        <v>59043.450000000012</v>
+      </c>
+      <c r="P6" s="15">
+        <f t="shared" si="1"/>
         <v>4920.2875000000013</v>
       </c>
-      <c r="P6" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="4">
+        <f t="shared" si="2"/>
         <v>7074.01</v>
       </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="2"/>
+      <c r="R6" s="5">
+        <f t="shared" si="3"/>
         <v>5090.8099999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1186,26 +1213,30 @@
       <c r="L7" s="4">
         <v>2098.12</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>4797.45</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="N7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="15">
         <f t="shared" si="0"/>
+        <v>46293.64</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="1"/>
         <v>3857.8033333333333</v>
       </c>
-      <c r="P7" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
         <v>1691.46</v>
       </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="2"/>
+      <c r="R7" s="5">
+        <f t="shared" si="3"/>
         <v>3487.58</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1242,26 +1273,30 @@
       <c r="L8" s="4">
         <v>7850.52</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>6233.31</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="16">
+      <c r="N8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="15">
         <f t="shared" si="0"/>
+        <v>55085.78</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
         <v>4590.4816666666666</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
         <v>3343.6</v>
       </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="2"/>
+      <c r="R8" s="5">
+        <f t="shared" si="3"/>
         <v>4529.4350000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1298,26 +1333,30 @@
       <c r="L9" s="4">
         <v>2236.37</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>2236.37</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="16">
+      <c r="N9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="15">
         <f t="shared" si="0"/>
+        <v>45736.42</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
         <v>3811.3683333333333</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="4">
+        <f t="shared" si="2"/>
         <v>2236.37</v>
       </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="2"/>
+      <c r="R9" s="5">
+        <f t="shared" si="3"/>
         <v>3814.14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
@@ -1354,26 +1393,30 @@
       <c r="L10" s="4">
         <v>1792.05</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>3114.98</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="16">
+      <c r="N10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="15">
         <f t="shared" si="0"/>
+        <v>39781.61</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="1"/>
         <v>3315.1341666666667</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="4">
+        <f t="shared" si="2"/>
         <v>1987.35</v>
       </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="2"/>
+      <c r="R10" s="5">
+        <f t="shared" si="3"/>
         <v>2660.3500000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1410,26 +1453,30 @@
       <c r="L11" s="4">
         <v>4753.78</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>3114.89</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="16">
+      <c r="N11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="15">
         <f t="shared" si="0"/>
+        <v>61119.790000000008</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="1"/>
         <v>5093.315833333334</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="4">
+        <f t="shared" si="2"/>
         <v>2241.3000000000002</v>
       </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="2"/>
+      <c r="R11" s="5">
+        <f t="shared" si="3"/>
         <v>5494.24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
@@ -1466,26 +1513,30 @@
       <c r="L12" s="4">
         <v>4972.3</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>7743.24</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="16">
+      <c r="N12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="15">
         <f t="shared" si="0"/>
+        <v>59034.140000000007</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="1"/>
         <v>4919.5116666666672</v>
       </c>
-      <c r="P12" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="4">
+        <f t="shared" si="2"/>
         <v>5973.13</v>
       </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="2"/>
+      <c r="R12" s="5">
+        <f t="shared" si="3"/>
         <v>4793.3099999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1522,26 +1573,30 @@
       <c r="L13" s="4">
         <v>6954.77</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>2812.95</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="16">
+      <c r="N13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="15">
         <f t="shared" si="0"/>
+        <v>62087.25</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="1"/>
         <v>5173.9375</v>
       </c>
-      <c r="P13" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="4">
+        <f t="shared" si="2"/>
         <v>4757.7</v>
       </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="2"/>
+      <c r="R13" s="5">
+        <f t="shared" si="3"/>
         <v>5244.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1578,26 +1633,30 @@
       <c r="L14" s="4">
         <v>2695.65</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>1795.05</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="16">
+      <c r="N14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="15">
         <f t="shared" si="0"/>
+        <v>49357.840000000004</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="1"/>
         <v>4113.1533333333336</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="4">
+        <f t="shared" si="2"/>
         <v>2695.65</v>
       </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="2"/>
+      <c r="R14" s="5">
+        <f t="shared" si="3"/>
         <v>3973.3599999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1634,26 +1693,30 @@
       <c r="L15" s="4">
         <v>7113.9</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>2161.35</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="16">
+      <c r="N15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="15">
         <f t="shared" si="0"/>
+        <v>55442.859999999993</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="1"/>
         <v>4620.2383333333328</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="4">
+        <f t="shared" si="2"/>
         <v>2531.38</v>
       </c>
-      <c r="Q15" s="5">
-        <f t="shared" si="2"/>
+      <c r="R15" s="5">
+        <f t="shared" si="3"/>
         <v>4121.9400000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
@@ -1690,26 +1753,30 @@
       <c r="L16" s="4">
         <v>6267.17</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>5697.95</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="16">
+      <c r="N16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="15">
         <f t="shared" si="0"/>
+        <v>45592.2</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="1"/>
         <v>3799.35</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="1"/>
-        <v>3464.76</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <f t="shared" si="2"/>
         <v>3464.76</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="5">
+        <f t="shared" si="3"/>
+        <v>3464.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1746,26 +1813,30 @@
       <c r="L17" s="4">
         <v>1850.34</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>4634.87</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="16">
+      <c r="N17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="15">
         <f t="shared" si="0"/>
+        <v>56989.85</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="1"/>
         <v>4749.1541666666662</v>
       </c>
-      <c r="P17" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="4">
+        <f t="shared" si="2"/>
         <v>4344.45</v>
       </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="2"/>
+      <c r="R17" s="5">
+        <f t="shared" si="3"/>
         <v>4521.5599999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
@@ -1802,26 +1873,30 @@
       <c r="L18" s="4">
         <v>7934</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>4868.18</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="16">
+      <c r="N18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="15">
         <f t="shared" si="0"/>
+        <v>60618.83</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="1"/>
         <v>5051.5691666666671</v>
       </c>
-      <c r="P18" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="4">
+        <f t="shared" si="2"/>
         <v>7453.85</v>
       </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="2"/>
+      <c r="R18" s="5">
+        <f t="shared" si="3"/>
         <v>4813.3700000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -1858,26 +1933,30 @@
       <c r="L19" s="4">
         <v>3953.74</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>4705.17</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="16">
+      <c r="N19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="15">
         <f t="shared" si="0"/>
+        <v>57037.84</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="1"/>
         <v>4753.1533333333327</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="4">
+        <f t="shared" si="2"/>
         <v>5357.39</v>
       </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="2"/>
+      <c r="R19" s="5">
+        <f t="shared" si="3"/>
         <v>4873.5450000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
@@ -1914,26 +1993,30 @@
       <c r="L20" s="4">
         <v>6349.24</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>5112.83</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="16">
+      <c r="N20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="15">
         <f t="shared" si="0"/>
+        <v>56395.26</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="1"/>
         <v>4699.6050000000005</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="4">
+        <f t="shared" si="2"/>
         <v>4037.19</v>
       </c>
-      <c r="Q20" s="5">
-        <f t="shared" si="2"/>
+      <c r="R20" s="5">
+        <f t="shared" si="3"/>
         <v>4553.2550000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
@@ -1970,26 +2053,30 @@
       <c r="L21" s="4">
         <v>6915.29</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>7121.21</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21" s="16">
+      <c r="N21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="15">
         <f t="shared" si="0"/>
+        <v>46886.31</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="1"/>
         <v>3907.1924999999997</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="2"/>
         <v>3547.91</v>
       </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="2"/>
+      <c r="R21" s="5">
+        <f t="shared" si="3"/>
         <v>3657.26</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
@@ -2026,26 +2113,30 @@
       <c r="L22" s="4">
         <v>5699.98</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>5920.7</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="16">
+      <c r="N22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="15">
         <f t="shared" si="0"/>
+        <v>52664.349999999991</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="1"/>
         <v>4388.6958333333323</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="2"/>
         <v>3411.52</v>
       </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="2"/>
+      <c r="R22" s="5">
+        <f t="shared" si="3"/>
         <v>4089.4900000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>33</v>
       </c>
@@ -2082,26 +2173,30 @@
       <c r="L23" s="4">
         <v>5269.11</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <v>6777.95</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O23" s="16">
+      <c r="N23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="15">
         <f t="shared" si="0"/>
+        <v>62471.59</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="1"/>
         <v>5205.9658333333327</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="2"/>
         <v>1888.76</v>
       </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="2"/>
+      <c r="R23" s="5">
+        <f t="shared" si="3"/>
         <v>5753.17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
@@ -2138,26 +2233,30 @@
       <c r="L24" s="4">
         <v>3097.39</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <v>1803.79</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="16">
+      <c r="N24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="15">
         <f t="shared" si="0"/>
+        <v>58301.859999999993</v>
+      </c>
+      <c r="P24" s="15">
+        <f t="shared" si="1"/>
         <v>4858.4883333333328</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="2"/>
         <v>3234.17</v>
       </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="2"/>
+      <c r="R24" s="5">
+        <f t="shared" si="3"/>
         <v>4324.5600000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
@@ -2194,26 +2293,30 @@
       <c r="L25" s="4">
         <v>5376.87</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>5244.14</v>
       </c>
-      <c r="N25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="16">
+      <c r="N25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="15">
         <f t="shared" si="0"/>
+        <v>58780.270000000004</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" si="1"/>
         <v>4898.355833333334</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="2"/>
         <v>4160.6099999999997</v>
       </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="2"/>
+      <c r="R25" s="5">
+        <f t="shared" si="3"/>
         <v>5165.0200000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
@@ -2250,26 +2353,30 @@
       <c r="L26" s="4">
         <v>3573.15</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <v>4156.82</v>
       </c>
-      <c r="N26" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="16">
+      <c r="N26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="15">
         <f t="shared" si="0"/>
+        <v>59380.740000000005</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" si="1"/>
         <v>4948.3950000000004</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="1"/>
-        <v>4413.25</v>
-      </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <f t="shared" si="2"/>
         <v>4413.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="5">
+        <f t="shared" si="3"/>
+        <v>4413.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>37</v>
       </c>
@@ -2306,26 +2413,30 @@
       <c r="L27" s="4">
         <v>6812.52</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <v>6220.86</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="16">
+      <c r="N27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="15">
         <f t="shared" si="0"/>
+        <v>74481.740000000005</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" si="1"/>
         <v>6206.8116666666674</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="4">
+        <f t="shared" si="2"/>
         <v>6812.52</v>
       </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="2"/>
+      <c r="R27" s="5">
+        <f t="shared" si="3"/>
         <v>6558.1949999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -2362,26 +2473,30 @@
       <c r="L28" s="4">
         <v>6063.2</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <v>6238.98</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="15">
         <f t="shared" si="0"/>
+        <v>61562.509999999995</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" si="1"/>
         <v>5130.2091666666665</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="2"/>
         <v>7745.51</v>
       </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="2"/>
+      <c r="R28" s="5">
+        <f t="shared" si="3"/>
         <v>5264.5249999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>39</v>
       </c>
@@ -2418,26 +2533,30 @@
       <c r="L29" s="4">
         <v>7880.75</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>1986.8</v>
       </c>
-      <c r="N29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" s="16">
+      <c r="N29" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="15">
         <f t="shared" si="0"/>
+        <v>61555.3</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" si="1"/>
         <v>5129.6083333333336</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="4">
+        <f t="shared" si="2"/>
         <v>7792.74</v>
       </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="2"/>
+      <c r="R29" s="5">
+        <f t="shared" si="3"/>
         <v>5030.7649999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -2474,27 +2593,31 @@
       <c r="L30" s="4">
         <v>3764.17</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <v>7485.64</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="16">
+      <c r="N30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="15">
         <f t="shared" si="0"/>
+        <v>62938.529999999984</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="1"/>
         <v>5244.8774999999987</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="4">
+        <f t="shared" si="2"/>
         <v>7485.64</v>
       </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="2"/>
+      <c r="R30" s="5">
+        <f t="shared" si="3"/>
         <v>5695.5550000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="6">
@@ -2530,50 +2653,54 @@
       <c r="L31" s="6">
         <v>2626.49</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="13">
         <v>3717.63</v>
       </c>
-      <c r="N31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="17">
+      <c r="N31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="16">
         <f t="shared" si="0"/>
+        <v>61510.919999999991</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="1"/>
         <v>5125.9099999999989</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q31" s="6">
+        <f t="shared" si="2"/>
         <v>7548.65</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="2"/>
+      <c r="R31" s="7">
+        <f t="shared" si="3"/>
         <v>5588.6399999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="27">
+      <c r="B34" s="23"/>
+      <c r="C34" s="26">
         <v>43805</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LvSv9pXkm0eHaV9DZKPEGjH0Pgp4uOH+3K9IFh7kMd1+KHCIv/ssgtC8sXACsn6z15VdgN2dD6qHJc3t8JL1Aw==" saltValue="pRLxtV0UM15A/lF+UG0wWQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DNApI17yox9nW1J9zfeUdAdXRbd+2aJ1oWmRBtUKRFWktz9K8jeonovkKT3kLmS/fMNTH2gGWMLR49kdtg0xJQ==" saltValue="tLbrhxZeC8Q59DqlRfCNNg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
@@ -2586,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
